--- a/src/web/music/英文歌.xlsx
+++ b/src/web/music/英文歌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DLJW_\Desktop\SPOTIFLIX\src\web\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1CD580-E9EC-4934-ABD8-D9E2C67FEE7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502DBBC4-A117-46B0-874B-B94E73EC2E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{09D27ED4-F2D6-4B54-A295-1F97E0532718}"/>
+    <workbookView xWindow="11648" yWindow="1755" windowWidth="12622" windowHeight="11423" xr2:uid="{09D27ED4-F2D6-4B54-A295-1F97E0532718}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>sin_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,7 +266,7 @@
         <u/>
         <sz val="12"/>
         <color theme="10"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -340,23 +340,89 @@
     <t>../musicspotiflix/30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>songs 資料庫 新增Son_Pic</t>
+  </si>
+  <si>
+    <t>https://img.mymusic.net.tw/mms/album/L/190/55190.jpg</t>
+  </si>
+  <si>
+    <t>https://i.kfs.io/album/global/310226,0v1/fit/500x500.jpg</t>
+  </si>
+  <si>
+    <t>https://i.kfs.io/album/global/6542696,1v1/fit/500x500.jpg</t>
+  </si>
+  <si>
+    <t>https://i.kfs.io/album/tw/2527177,0v1/fit/500x500.jpg</t>
+  </si>
+  <si>
+    <t>https://data.17jita.com/attachment/portal/201903/04/143759y946stvttwvvqtdp.jpg</t>
+  </si>
+  <si>
+    <t>https://c-sf.smule.com/sf/s66/arr/0c/ac/c502b66b-83b8-4110-ba34-f75e9aa4a79a_512.jpg</t>
+  </si>
+  <si>
+    <t>https://i1.sndcdn.com/artworks-000280071455-0mxjld-t500x500.jpg</t>
+  </si>
+  <si>
+    <t>https://5b0988e595225.cdn.sohucs.com/images/20171102/bd46341f25c34f02af189cc7cf5bcded.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/BVpXUyXPKOg/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://lastfm-img2.akamaized.net/i/u/300x300/d8a1602c6e25414d977e7ae8397e2c6f.png</t>
+  </si>
+  <si>
+    <t>https://img.mymusic.net.tw/mms/album/L/342/342.jpg</t>
+  </si>
+  <si>
+    <t>https://www.am1470.com/data/activities/1512363328-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.kfs.io/album/global/11203226,2v1/fit/500x500.jpg</t>
+  </si>
+  <si>
+    <t>https://dingyue.ws.126.net/2019/10/16/164c823b1ba742c3acf1485d8a0ecdce.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.kfs.io/album/global/31807520,0v1/fit/500x500.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/8QxQeCNl2zo/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://img.mymusic.net.tw/mms/album/L/410/277410.jpg</t>
+  </si>
+  <si>
+    <t>https://www.jgospel.net/jgospel_media/120508/.jpg</t>
+  </si>
+  <si>
+    <t>https://img.mymusic.net.tw/mms/album/L/288/540288.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/sHNy8muYwdU/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>../music/spotiflix/14.mp3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -365,7 +431,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -380,7 +446,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -388,7 +454,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF606060"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -437,8 +503,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,7 +520,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -750,15 +816,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A860C8-32AB-4045-A590-4D0E8E233621}">
-  <dimension ref="B1:J18"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -787,7 +853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -813,7 +879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -839,7 +905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -865,7 +931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -891,7 +957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -917,7 +983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -943,7 +1009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -969,7 +1035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -995,7 +1061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1047,7 +1113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>64</v>
       </c>
@@ -1081,7 +1147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10">
       <c r="B16" t="s">
         <v>65</v>
       </c>
@@ -1098,7 +1164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -1115,7 +1181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -1130,6 +1196,126 @@
       </c>
       <c r="F18" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/src/web/music/英文歌.xlsx
+++ b/src/web/music/英文歌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DLJW_\Desktop\SPOTIFLIX\src\web\music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\系統分析\SPOTIFLIX\src\web\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502DBBC4-A117-46B0-874B-B94E73EC2E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF39454-6F87-4CCD-A48B-75EAA487CD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11648" yWindow="1755" windowWidth="12622" windowHeight="11423" xr2:uid="{09D27ED4-F2D6-4B54-A295-1F97E0532718}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09D27ED4-F2D6-4B54-A295-1F97E0532718}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="sin_id">工作表1!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -164,265 +162,667 @@
     <t>https://genius.com/Joji-will-he-lyrics</t>
   </si>
   <si>
+    <t>https://genius.com/Wifisfuneral-genesis-lyrics</t>
+  </si>
+  <si>
+    <t>https://genius.com/Wifisfuneral-run-lyrics</t>
+  </si>
+  <si>
+    <t>https://genius.com/Joey-trap-30-clip-2-lyrics</t>
+  </si>
+  <si>
+    <t>https://genius.com/Joey-trap-too-sick-lyrics</t>
+  </si>
+  <si>
+    <t>https://genius.com/Joey-trap-and-tokyos-revenge-peanut-butter-jelly-lyrics</t>
+  </si>
+  <si>
+    <t>https://genius.com/Rich-brian-introvert-lyrics</t>
+  </si>
+  <si>
+    <t>https://genius.com/Rich-brian-cold-lyrics</t>
+  </si>
+  <si>
+    <t>https://genius.com/88rising-and-rich-brian-history-lyrics</t>
+  </si>
+  <si>
+    <t>sin_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sin_Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sin_Country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sin_Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wifisfuneral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey Trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rich Brian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000000011</t>
+  </si>
+  <si>
+    <t>C000000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../musicspotiflix/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../musicspotiflix/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../musicspotiflix/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../musicspotiflix/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../musicspotiflix/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../musicspotiflix/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../musicspotiflix/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../musicspotiflix/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../musicspotiflix/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../musicspotiflix/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>songs 資料庫 新增Son_Pic</t>
+  </si>
+  <si>
+    <t>../music/spotiflix/14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.mymusic.net.tw/mms/album/L/190/55190.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.kfs.io/album/global/310226,0v1/fit/500x500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.kfs.io/album/global/6542696,1v1/fit/500x500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.17jita.com/attachment/portal/201903/04/143759y946stvttwvvqtdp.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.kfs.io/album/tw/2527177,0v1/fit/500x500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://c-sf.smule.com/sf/s66/arr/0c/ac/c502b66b-83b8-4110-ba34-f75e9aa4a79a_512.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i1.sndcdn.com/artworks-000280071455-0mxjld-t500x500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://5b0988e595225.cdn.sohucs.com/images/20171102/bd46341f25c34f02af189cc7cf5bcded.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/BVpXUyXPKOg/hqdefault.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lastfm-img2.akamaized.net/i/u/300x300/d8a1602c6e25414d977e7ae8397e2c6f.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.mymusic.net.tw/mms/album/L/342/342.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.am1470.com/data/activities/1512363328-3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.kfs.io/album/global/11203226,2v1/fit/500x500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dingyue.ws.126.net/2019/10/16/164c823b1ba742c3acf1485d8a0ecdce.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.kfs.io/album/global/31807520,0v1/fit/500x500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/8QxQeCNl2zo/hqdefault.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.mymusic.net.tw/mms/album/L/410/277410.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jgospel.net/jgospel_media/120508/.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.mymusic.net.tw/mms/album/L/288/540288.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/sHNy8muYwdU/maxresdefault.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>譯自英文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>喬治</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>庫蘇諾基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米勒（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>George Kusunoki Miller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）以其藝名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Joji</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和以前的在線別名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filthy Frank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pink Guy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>而聞名，他是日本歌唱家，唱片製作人，作家，曾是互聯網紅人，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>youtuber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和喜劇演員。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>譯自英文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以賽亞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>里維拉（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Isaiah Rivera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）的藝名是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wifisfuneral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，他是美國前饒舌歌手和歌曲創作人。他以突破性的混音帶，《黑心復仇》，《地獄降臨》，《以太網》和《狼來了的男孩》而聞名。退休前，他曾與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alamo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>唱片公司和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Empire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>唱片公司簽約，此前還與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Interscope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>唱片公司簽約。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1998 年 10 月 26 日（21歲），</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美國紐約州紐約布朗克斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>布萊恩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>伊曼紐，原藝名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rich Chigga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，後改為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rich Brian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，是一位印尼華裔歌手、喜劇演員</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://reurl.cc/E7y2Ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://reurl.cc/WdgEjD</t>
-  </si>
-  <si>
-    <t>https://genius.com/Wifisfuneral-genesis-lyrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://reurl.cc/Y1bWLa</t>
-  </si>
-  <si>
-    <t>https://genius.com/Wifisfuneral-run-lyrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://reurl.cc/Kk5xVy</t>
-  </si>
-  <si>
-    <t>https://genius.com/Joey-trap-30-clip-2-lyrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://reurl.cc/NjgX5Q</t>
-  </si>
-  <si>
-    <t>https://genius.com/Joey-trap-too-sick-lyrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://reurl.cc/MvgZYL</t>
-  </si>
-  <si>
-    <t>https://genius.com/Joey-trap-and-tokyos-revenge-peanut-butter-jelly-lyrics</t>
-  </si>
-  <si>
-    <t>https://genius.com/Rich-brian-introvert-lyrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://reurl.cc/0oGjgx</t>
-  </si>
-  <si>
-    <t>https://genius.com/Rich-brian-cold-lyrics</t>
-  </si>
-  <si>
-    <t>https://genius.com/88rising-and-rich-brian-history-lyrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://reurl.cc/oL6gLq</t>
-  </si>
-  <si>
-    <t>sin_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sin_Year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sin_Country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sin_Intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wifisfuneral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joey Trap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rich Brian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>譯自英文-喬治·庫蘇諾基·米勒（George Kusunoki Miller）以其藝名Joji和以前的在線別名Filthy Frank和Pink Guy而聞名，他是日本歌唱家，唱片製作人，作家，曾是互聯網紅人，youtuber和喜劇演員。</t>
-  </si>
-  <si>
-    <t>日本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>譯自英文-以賽亞·里維拉（Isaiah Rivera）的藝名是Wifisfuneral，他是美國前饒舌歌手和歌曲創作人。他以突破性的混音帶，《黑心復仇》，《地獄降臨》，《以太網》和《狼來了的男孩》而聞名。退休前，他曾與Alamo唱片公司和Empire唱片公司簽約，此前還與Interscope唱片公司簽約。</t>
-  </si>
-  <si>
-    <t>美國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1998 年 10 月 26 日（21歲），</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>美國紐約州紐約布朗克斯</t>
-    </r>
-  </si>
-  <si>
-    <t>布萊恩·伊曼紐，原藝名Rich Chigga，後改為Rich Brian，是一位印尼華裔歌手、喜劇演員</t>
-  </si>
-  <si>
-    <t>印尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C000000011</t>
-  </si>
-  <si>
-    <t>C000000011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C000000012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C000000013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C000000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../musicspotiflix/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../musicspotiflix/22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../musicspotiflix/23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../musicspotiflix/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../musicspotiflix/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../musicspotiflix/26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../musicspotiflix/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../musicspotiflix/28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../musicspotiflix/29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../musicspotiflix/30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>songs 資料庫 新增Son_Pic</t>
-  </si>
-  <si>
-    <t>https://img.mymusic.net.tw/mms/album/L/190/55190.jpg</t>
-  </si>
-  <si>
-    <t>https://i.kfs.io/album/global/310226,0v1/fit/500x500.jpg</t>
-  </si>
-  <si>
-    <t>https://i.kfs.io/album/global/6542696,1v1/fit/500x500.jpg</t>
-  </si>
-  <si>
-    <t>https://i.kfs.io/album/tw/2527177,0v1/fit/500x500.jpg</t>
-  </si>
-  <si>
-    <t>https://data.17jita.com/attachment/portal/201903/04/143759y946stvttwvvqtdp.jpg</t>
-  </si>
-  <si>
-    <t>https://c-sf.smule.com/sf/s66/arr/0c/ac/c502b66b-83b8-4110-ba34-f75e9aa4a79a_512.jpg</t>
-  </si>
-  <si>
-    <t>https://i1.sndcdn.com/artworks-000280071455-0mxjld-t500x500.jpg</t>
-  </si>
-  <si>
-    <t>https://5b0988e595225.cdn.sohucs.com/images/20171102/bd46341f25c34f02af189cc7cf5bcded.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/BVpXUyXPKOg/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://lastfm-img2.akamaized.net/i/u/300x300/d8a1602c6e25414d977e7ae8397e2c6f.png</t>
-  </si>
-  <si>
-    <t>https://img.mymusic.net.tw/mms/album/L/342/342.jpg</t>
-  </si>
-  <si>
-    <t>https://www.am1470.com/data/activities/1512363328-3.jpg</t>
-  </si>
-  <si>
-    <t>https://i.kfs.io/album/global/11203226,2v1/fit/500x500.jpg</t>
-  </si>
-  <si>
-    <t>https://dingyue.ws.126.net/2019/10/16/164c823b1ba742c3acf1485d8a0ecdce.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.kfs.io/album/global/31807520,0v1/fit/500x500.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/8QxQeCNl2zo/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://img.mymusic.net.tw/mms/album/L/410/277410.jpg</t>
-  </si>
-  <si>
-    <t>https://www.jgospel.net/jgospel_media/120508/.jpg</t>
-  </si>
-  <si>
-    <t>https://img.mymusic.net.tw/mms/album/L/288/540288.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/sHNy8muYwdU/maxresdefault.jpg</t>
-  </si>
-  <si>
-    <t>../music/spotiflix/14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -431,7 +831,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -446,7 +846,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -454,10 +854,24 @@
     <font>
       <sz val="12"/>
       <color rgb="FF606060"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D5156"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -495,16 +909,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,7 +934,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -818,13 +1232,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A860C8-32AB-4045-A590-4D0E8E233621}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -853,7 +1267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -870,16 +1284,16 @@
         <v>2.615740740740741E-3</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -896,16 +1310,16 @@
         <v>2.3495370370370371E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -916,22 +1330,22 @@
         <v>2018</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1">
         <v>2.2569444444444447E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -942,22 +1356,22 @@
         <v>2019</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1">
         <v>1.3078703703703705E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -968,22 +1382,22 @@
         <v>2017</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1">
         <v>1.8518518518518517E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>54</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -994,22 +1408,22 @@
         <v>2019</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>1.25E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1020,22 +1434,22 @@
         <v>2019</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>2.1990740740740742E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1046,48 +1460,48 @@
         <v>2018</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1">
         <v>2.5810185185185185E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2018</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1">
         <v>2.673611111111111E-3</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1098,224 +1512,272 @@
         <v>2019</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>1992</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1997</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>1998</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>1999</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="C27" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="C28" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
-      <c r="C29" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="C30" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
-      <c r="C31" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>119</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="C32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="C36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="C39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="C40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="C42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
-        <v>98</v>
+      <c r="C43" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1332,8 +1794,38 @@
     <hyperlink ref="E10" r:id="rId9" xr:uid="{38812676-1C62-4FC4-A95E-55F4AA911436}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{511C483F-D68C-4C43-90E9-AA4706FE3F7E}"/>
     <hyperlink ref="F17" r:id="rId11" display="https://www.google.com/search?sxsrf=ALeKk03s01ViXxiE7WDstWAYDt4uq9I0Cw:1592039048172&amp;q=%E5%B8%83%E6%9C%97%E5%85%8B%E6%96%AF&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEypNE8qLrCsVOLQz9U3MDQ1NtQSy0620i9IzS_ISQVSRcX5eVZJ-UV5i1h5nu5ofjZn-tPW7mfT1u9gZQQApYOTbUUAAAA&amp;sa=X&amp;ved=2ahUKEwiI5bzPt_7pAhUyGqYKHZoZAIkQmxMoATAdegQIBRAD" xr:uid="{7D35D988-15F4-4437-AD7B-1A83B8BBFE8F}"/>
+    <hyperlink ref="C24" r:id="rId12" xr:uid="{2F0BC050-186C-41F5-B89E-04EBDB8FDD57}"/>
+    <hyperlink ref="C25" r:id="rId13" xr:uid="{4AFD2C49-DADF-49FE-8ACF-BED360404CE8}"/>
+    <hyperlink ref="C26" r:id="rId14" xr:uid="{33126495-3647-4B5D-98F9-986D843ECF82}"/>
+    <hyperlink ref="C28" r:id="rId15" xr:uid="{BC917C16-1EB9-4733-93A0-B1A7755598FB}"/>
+    <hyperlink ref="C27" r:id="rId16" xr:uid="{C190A6ED-8AAF-43F9-B162-37DA2C95EB0B}"/>
+    <hyperlink ref="C29" r:id="rId17" xr:uid="{F194A7D6-52FC-466F-B699-8518F56B9898}"/>
+    <hyperlink ref="C30" r:id="rId18" xr:uid="{1D1BD45F-0BE6-445F-8730-0AA7A11A8AEB}"/>
+    <hyperlink ref="C31" r:id="rId19" xr:uid="{9E353F6D-B2C4-4412-9328-0647EAB73925}"/>
+    <hyperlink ref="C32" r:id="rId20" xr:uid="{0704FC14-F5BE-4A7F-B3ED-0B9694DC8D66}"/>
+    <hyperlink ref="C33" r:id="rId21" xr:uid="{16D46E34-4D25-46AA-8AA7-F8BF84FD1A7B}"/>
+    <hyperlink ref="C34" r:id="rId22" xr:uid="{E312F834-E002-4A62-BD4A-4B08C2091BE3}"/>
+    <hyperlink ref="C35" r:id="rId23" xr:uid="{69393825-716A-4F17-95DA-8D71FE51FC6D}"/>
+    <hyperlink ref="C36" r:id="rId24" xr:uid="{F265C5D4-A2F9-43EB-85AD-D7767D107AD7}"/>
+    <hyperlink ref="C37" r:id="rId25" xr:uid="{3A2A6B11-32B0-44FB-A791-768C93427372}"/>
+    <hyperlink ref="C38" r:id="rId26" xr:uid="{0D726EF3-CC58-4C61-811B-8D9946C68E35}"/>
+    <hyperlink ref="C39" r:id="rId27" xr:uid="{4C5C2F6C-04B8-4691-B324-8B423EE08D3D}"/>
+    <hyperlink ref="C40" r:id="rId28" xr:uid="{A84A2BD9-7B7F-4445-AB74-F8BB0B4A237D}"/>
+    <hyperlink ref="C41" r:id="rId29" xr:uid="{C6BEB1E9-C7EA-4CD0-8971-A86D32F33670}"/>
+    <hyperlink ref="C42" r:id="rId30" xr:uid="{83EFFB39-62B6-4E68-83CB-EFA8DAFD1C17}"/>
+    <hyperlink ref="C43" r:id="rId31" xr:uid="{FCF763FC-541D-4D13-A5F8-08C3770D18EE}"/>
+    <hyperlink ref="J2" r:id="rId32" xr:uid="{DAC3886B-AF19-4769-9286-B626EBF3ED25}"/>
+    <hyperlink ref="J3" r:id="rId33" xr:uid="{A794BE11-08B1-4EB2-A394-A1030EE2B3BF}"/>
+    <hyperlink ref="J4" r:id="rId34" xr:uid="{8B3A900C-F341-47E3-94B9-FD338B3DF762}"/>
+    <hyperlink ref="J5" r:id="rId35" xr:uid="{57B4EB66-5860-43EA-A0F9-38FC71FEEBCE}"/>
+    <hyperlink ref="J6" r:id="rId36" xr:uid="{0BB87C7B-D4A1-47B7-8E3C-6A2BDD1A8AFB}"/>
+    <hyperlink ref="J7" r:id="rId37" xr:uid="{BE726213-FF5E-4550-9734-4B597B38CD0E}"/>
+    <hyperlink ref="J8" r:id="rId38" xr:uid="{D6275147-A203-4884-93A8-B723DCF4ECD0}"/>
+    <hyperlink ref="J9" r:id="rId39" xr:uid="{9F768D1B-F505-4729-9629-69A0500BFDCB}"/>
+    <hyperlink ref="J10" r:id="rId40" xr:uid="{ACDF91D6-CFAC-456C-992A-8E7C4793E4D5}"/>
+    <hyperlink ref="J11" r:id="rId41" xr:uid="{D5C410BF-06D9-4A74-9DCD-FAF157D811A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>